--- a/_CE_params/coeficientes_estaticos/bbce2_Factures_ficticies.xlsx
+++ b/_CE_params/coeficientes_estaticos/bbce2_Factures_ficticies.xlsx
@@ -54,674 +54,806 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D79"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="9.5546875" customWidth="true"/>
     <col min="2" max="2" width="9.5546875" customWidth="true"/>
     <col min="3" max="3" width="9.5546875" customWidth="true"/>
-    <col min="4" max="4" width="9.5546875" customWidth="true"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="0">
+        <v>2104</v>
+      </c>
+      <c r="B1" s="0">
+        <v>2515</v>
+      </c>
+      <c r="C1" s="0">
+        <v>2611</v>
+      </c>
+    </row>
     <row r="2">
+      <c r="A2" s="0">
+        <v>886.08300000000008</v>
+      </c>
       <c r="B2" s="0">
-        <v>2066</v>
+        <v>1925.7290000000005</v>
       </c>
       <c r="C2" s="0">
-        <v>2515</v>
-      </c>
-      <c r="D2" s="0">
-        <v>2611</v>
+        <v>2129.4700000000003</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="0">
+        <v>11543.705000000004</v>
+      </c>
       <c r="B3" s="0">
-        <v>1458.4509999999996</v>
+        <v>6488.0490000000018</v>
       </c>
       <c r="C3" s="0">
-        <v>1771.0889999999997</v>
-      </c>
-      <c r="D3" s="0">
-        <v>1695.3900000000001</v>
+        <v>6737.002000000004</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="0">
+        <v>6659.7100000000019</v>
+      </c>
       <c r="B4" s="0">
-        <v>12244.541000000008</v>
+        <v>3682.746000000001</v>
       </c>
       <c r="C4" s="0">
-        <v>6357.9530000000022</v>
-      </c>
-      <c r="D4" s="0">
-        <v>5961.3480000000036</v>
+        <v>4209.5439999999999</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="0">
+        <v>4494.0480000000007</v>
+      </c>
       <c r="B5" s="0">
-        <v>7169.7200000000012</v>
+        <v>2247.5009999999997</v>
       </c>
       <c r="C5" s="0">
-        <v>3801.1949999999974</v>
-      </c>
-      <c r="D5" s="0">
-        <v>3460.8750000000009</v>
+        <v>2209.3029999999999</v>
       </c>
     </row>
     <row r="6">
+      <c r="A6" s="0">
+        <v>0</v>
+      </c>
       <c r="B6" s="0">
-        <v>4964.1680000000042</v>
+        <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>1954.7710000000002</v>
-      </c>
-      <c r="D6" s="0">
-        <v>1951.2900000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
+      <c r="A7" s="0">
+        <v>3489</v>
+      </c>
       <c r="B7" s="0">
-        <v>0</v>
+        <v>2788</v>
       </c>
       <c r="C7" s="0">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0">
-        <v>0</v>
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>769.35000000000014</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2061.8949999999991</v>
+      </c>
+      <c r="C8" s="0">
+        <v>2227.2549999999992</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>10928.412999999993</v>
+      </c>
+      <c r="B9" s="0">
+        <v>6145.0419999999995</v>
+      </c>
+      <c r="C9" s="0">
+        <v>6425.9440000000004</v>
       </c>
     </row>
     <row r="10">
+      <c r="A10" s="0">
+        <v>6190.8819999999969</v>
+      </c>
       <c r="B10" s="0">
-        <v>3489</v>
+        <v>3433.9150000000004</v>
       </c>
       <c r="C10" s="0">
-        <v>2788</v>
-      </c>
-      <c r="D10" s="0">
-        <v>2807</v>
+        <v>4066.0949999999993</v>
       </c>
     </row>
     <row r="11">
+      <c r="A11" s="0">
+        <v>4529.7630000000008</v>
+      </c>
       <c r="B11" s="0">
-        <v>1464.46</v>
+        <v>2226.753999999999</v>
       </c>
       <c r="C11" s="0">
-        <v>1838.9199999999998</v>
-      </c>
-      <c r="D11" s="0">
-        <v>1755.1199999999994</v>
+        <v>2279.1679999999992</v>
       </c>
     </row>
     <row r="12">
+      <c r="A12" s="0">
+        <v>0</v>
+      </c>
       <c r="B12" s="0">
-        <v>11684.194999999989</v>
+        <v>0</v>
       </c>
       <c r="C12" s="0">
-        <v>6090.4529999999986</v>
-      </c>
-      <c r="D12" s="0">
-        <v>5724.7509999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
+      <c r="A13" s="0">
+        <v>3586</v>
+      </c>
       <c r="B13" s="0">
-        <v>6727.6319999999932</v>
+        <v>2166</v>
       </c>
       <c r="C13" s="0">
-        <v>3747.1500000000001</v>
-      </c>
-      <c r="D13" s="0">
-        <v>3216.1099999999988</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="14">
+      <c r="A14" s="0">
+        <v>1680.8300000000006</v>
+      </c>
       <c r="B14" s="0">
-        <v>4971.6800000000012</v>
+        <v>2365.848</v>
       </c>
       <c r="C14" s="0">
-        <v>2063.8519999999999</v>
-      </c>
-      <c r="D14" s="0">
-        <v>2000.1530000000005</v>
+        <v>2592.3199999999993</v>
       </c>
     </row>
     <row r="15">
+      <c r="A15" s="0">
+        <v>10898.198999999999</v>
+      </c>
       <c r="B15" s="0">
-        <v>0</v>
+        <v>6496.1960000000036</v>
       </c>
       <c r="C15" s="0">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0">
-        <v>0</v>
+        <v>6838.2979999999998</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>6418.5089999999991</v>
+      </c>
+      <c r="B16" s="0">
+        <v>3538.2750000000015</v>
+      </c>
+      <c r="C16" s="0">
+        <v>4137.1259999999975</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>4330.2969999999987</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2277.2980000000002</v>
+      </c>
+      <c r="C17" s="0">
+        <v>2393.0169999999994</v>
       </c>
     </row>
     <row r="18">
+      <c r="A18" s="0">
+        <v>0</v>
+      </c>
       <c r="B18" s="0">
-        <v>3591</v>
+        <v>0</v>
       </c>
       <c r="C18" s="0">
-        <v>2166</v>
-      </c>
-      <c r="D18" s="0">
-        <v>1995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
+      <c r="A19" s="0">
+        <v>1373.362499999999</v>
+      </c>
       <c r="B19" s="0">
-        <v>2362.2900000000013</v>
+        <v>974.58799999999962</v>
       </c>
       <c r="C19" s="0">
-        <v>2122.3379999999997</v>
-      </c>
-      <c r="D19" s="0">
-        <v>2156.3199999999993</v>
+        <v>904.50499999999965</v>
       </c>
     </row>
     <row r="20">
+      <c r="A20" s="0">
+        <v>2226.7299999999991</v>
+      </c>
       <c r="B20" s="0">
-        <v>11695.314999999995</v>
+        <v>1618.7199999999998</v>
       </c>
       <c r="C20" s="0">
-        <v>6466.9160000000029</v>
-      </c>
-      <c r="D20" s="0">
-        <v>6095.2260000000042</v>
+        <v>1595.3999999999992</v>
       </c>
     </row>
     <row r="21">
+      <c r="A21" s="0">
+        <v>11257.601999999997</v>
+      </c>
       <c r="B21" s="0">
-        <v>6892.8589999999976</v>
+        <v>5283.1869999999981</v>
       </c>
       <c r="C21" s="0">
-        <v>3843.2089999999989</v>
-      </c>
-      <c r="D21" s="0">
-        <v>3372.8419999999996</v>
+        <v>5273.3289999999988</v>
       </c>
     </row>
     <row r="22">
+      <c r="A22" s="0">
+        <v>6446.7100000000028</v>
+      </c>
       <c r="B22" s="0">
-        <v>4806.4120000000021</v>
+        <v>2889.52</v>
       </c>
       <c r="C22" s="0">
-        <v>2136.3500000000008</v>
-      </c>
-      <c r="D22" s="0">
-        <v>2067.4330000000004</v>
+        <v>3212.8600000000006</v>
       </c>
     </row>
     <row r="23">
+      <c r="A23" s="0">
+        <v>4436.0550000000012</v>
+      </c>
       <c r="B23" s="0">
-        <v>0</v>
+        <v>1788.8079999999998</v>
       </c>
       <c r="C23" s="0">
-        <v>0</v>
-      </c>
-      <c r="D23" s="0">
-        <v>0</v>
+        <v>1895.6379999999997</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>1437.6405000000002</v>
+      </c>
+      <c r="B25" s="0">
+        <v>1305.6855000000005</v>
+      </c>
+      <c r="C25" s="0">
+        <v>1296.9269999999997</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" s="0">
+        <v>2168.4419999999991</v>
+      </c>
       <c r="B26" s="0">
-        <v>1377.362499999999</v>
+        <v>1919.04</v>
       </c>
       <c r="C26" s="0">
-        <v>974.58799999999962</v>
-      </c>
-      <c r="D26" s="0">
-        <v>904.50499999999965</v>
+        <v>1950.3590000000004</v>
       </c>
     </row>
     <row r="27">
+      <c r="A27" s="0">
+        <v>9275.2019999999975</v>
+      </c>
       <c r="B27" s="0">
-        <v>2625.7279999999987</v>
+        <v>5731.1030000000019</v>
       </c>
       <c r="C27" s="0">
-        <v>1379.384</v>
-      </c>
-      <c r="D27" s="0">
-        <v>1437.5859999999993</v>
+        <v>5661.070999999999</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" s="0">
+        <v>5620.2959999999975</v>
+      </c>
       <c r="B28" s="0">
-        <v>11975.635</v>
+        <v>3200.3049999999994</v>
       </c>
       <c r="C28" s="0">
-        <v>5124.5850000000019</v>
-      </c>
-      <c r="D28" s="0">
-        <v>4739.101999999999</v>
+        <v>3448.8949999999995</v>
       </c>
     </row>
     <row r="29">
+      <c r="A29" s="0">
+        <v>3701.6649999999995</v>
+      </c>
       <c r="B29" s="0">
-        <v>6725.5090000000018</v>
+        <v>1943.5560000000007</v>
       </c>
       <c r="C29" s="0">
-        <v>3099.3510000000001</v>
-      </c>
-      <c r="D29" s="0">
-        <v>2739.4399999999996</v>
+        <v>1983.7219999999991</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" s="0">
+        <v>0</v>
+      </c>
       <c r="B30" s="0">
-        <v>4842.857</v>
+        <v>0</v>
       </c>
       <c r="C30" s="0">
-        <v>1674.809</v>
-      </c>
-      <c r="D30" s="0">
-        <v>1613.0480000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" s="0">
+        <v>1512.3250000000003</v>
+      </c>
       <c r="B31" s="0">
-        <v>0</v>
+        <v>1711.5965000000003</v>
       </c>
       <c r="C31" s="0">
-        <v>0</v>
-      </c>
-      <c r="D31" s="0">
-        <v>0</v>
+        <v>1658.5349999999992</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>1903.3499999999999</v>
+      </c>
+      <c r="B32" s="0">
+        <v>1415.1059999999993</v>
+      </c>
+      <c r="C32" s="0">
+        <v>1425.0379999999998</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>16518.094000000001</v>
+      </c>
+      <c r="B33" s="0">
+        <v>10803.777</v>
+      </c>
+      <c r="C33" s="0">
+        <v>10427.597999999998</v>
       </c>
     </row>
     <row r="34">
+      <c r="A34" s="0">
+        <v>5041.8729999999978</v>
+      </c>
       <c r="B34" s="0">
-        <v>1441.6405000000002</v>
+        <v>3122.7190000000005</v>
       </c>
       <c r="C34" s="0">
-        <v>1305.6855000000005</v>
-      </c>
-      <c r="D34" s="0">
-        <v>1296.9269999999997</v>
+        <v>3308.4050000000007</v>
       </c>
     </row>
     <row r="35">
+      <c r="A35" s="0">
+        <v>4795.8240000000023</v>
+      </c>
       <c r="B35" s="0">
-        <v>2643.0110000000013</v>
+        <v>2852.4750000000004</v>
       </c>
       <c r="C35" s="0">
-        <v>1638.4190000000001</v>
-      </c>
-      <c r="D35" s="0">
-        <v>1758.7900000000002</v>
+        <v>2852.4190000000003</v>
       </c>
     </row>
     <row r="36">
+      <c r="A36" s="0">
+        <v>5.8399999999996908</v>
+      </c>
       <c r="B36" s="0">
-        <v>10238.437000000002</v>
+        <v>133.69000000000005</v>
       </c>
       <c r="C36" s="0">
-        <v>5375.594000000001</v>
-      </c>
-      <c r="D36" s="0">
-        <v>5078.0349999999989</v>
+        <v>121.76000000000067</v>
       </c>
     </row>
     <row r="37">
+      <c r="A37" s="0">
+        <v>5059.6164999999946</v>
+      </c>
       <c r="B37" s="0">
-        <v>5975.6329999999962</v>
+        <v>3905.7699999999977</v>
       </c>
       <c r="C37" s="0">
-        <v>3306.1469999999981</v>
-      </c>
-      <c r="D37" s="0">
-        <v>3002.7159999999999</v>
+        <v>3782.1229999999991</v>
       </c>
     </row>
     <row r="38">
+      <c r="A38" s="0">
+        <v>1969.172</v>
+      </c>
       <c r="B38" s="0">
-        <v>4239.6359999999995</v>
+        <v>892.43800000000022</v>
       </c>
       <c r="C38" s="0">
-        <v>1721.7619999999993</v>
-      </c>
-      <c r="D38" s="0">
-        <v>1677.2580000000005</v>
+        <v>945.06500000000028</v>
       </c>
     </row>
     <row r="39">
+      <c r="A39" s="0">
+        <v>26598.50299999999</v>
+      </c>
       <c r="B39" s="0">
-        <v>0</v>
+        <v>14668.986999999999</v>
       </c>
       <c r="C39" s="0">
-        <v>0</v>
-      </c>
-      <c r="D39" s="0">
-        <v>0</v>
+        <v>14325.897999999994</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>5868.4619999999932</v>
+      </c>
+      <c r="B40" s="0">
+        <v>3155.5130000000022</v>
+      </c>
+      <c r="C40" s="0">
+        <v>3470.2359999999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>8294.1510000000035</v>
+      </c>
+      <c r="B41" s="0">
+        <v>4466.217999999998</v>
+      </c>
+      <c r="C41" s="0">
+        <v>4292.9000000000015</v>
       </c>
     </row>
     <row r="42">
+      <c r="A42" s="0">
+        <v>0</v>
+      </c>
       <c r="B42" s="0">
-        <v>1517.325</v>
+        <v>0</v>
       </c>
       <c r="C42" s="0">
-        <v>1711.5965000000003</v>
-      </c>
-      <c r="D42" s="0">
-        <v>1658.5349999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
+      <c r="A43" s="0">
+        <v>5346.5099999999984</v>
+      </c>
       <c r="B43" s="0">
-        <v>2181.2690000000011</v>
+        <v>4057.3584999999989</v>
       </c>
       <c r="C43" s="0">
-        <v>1302.5059999999999</v>
-      </c>
-      <c r="D43" s="0">
-        <v>1261.887999999999</v>
+        <v>4199.5489999999991</v>
       </c>
     </row>
     <row r="44">
+      <c r="A44" s="0">
+        <v>1541.1400000000006</v>
+      </c>
       <c r="B44" s="0">
-        <v>18056.673999999995</v>
+        <v>774.31000000000063</v>
       </c>
       <c r="C44" s="0">
-        <v>9955.7899999999991</v>
-      </c>
-      <c r="D44" s="0">
-        <v>9761.8250000000025</v>
+        <v>781.94999999999982</v>
       </c>
     </row>
     <row r="45">
+      <c r="A45" s="0">
+        <v>23306.753000000026</v>
+      </c>
       <c r="B45" s="0">
-        <v>5461.0779999999977</v>
+        <v>14927.280000000004</v>
       </c>
       <c r="C45" s="0">
-        <v>3152.5300000000007</v>
-      </c>
-      <c r="D45" s="0">
-        <v>2874.2790000000005</v>
+        <v>14929.637999999992</v>
       </c>
     </row>
     <row r="46">
+      <c r="A46" s="0">
+        <v>5499.7400000000034</v>
+      </c>
       <c r="B46" s="0">
-        <v>5612.5960000000023</v>
+        <v>3429.6760000000004</v>
       </c>
       <c r="C46" s="0">
-        <v>2364.2289999999994</v>
-      </c>
-      <c r="D46" s="0">
-        <v>2533.746000000001</v>
+        <v>3680.5840000000017</v>
       </c>
     </row>
     <row r="47">
+      <c r="A47" s="0">
+        <v>7589.8439999999946</v>
+      </c>
       <c r="B47" s="0">
-        <v>20.900000000000091</v>
+        <v>4775.7479999999987</v>
       </c>
       <c r="C47" s="0">
-        <v>110.36999999999989</v>
-      </c>
-      <c r="D47" s="0">
-        <v>130.02000000000044</v>
+        <v>4709.6369999999997</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0</v>
+      </c>
+      <c r="B48" s="0">
+        <v>0</v>
+      </c>
+      <c r="C48" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>3887.4975000000031</v>
+      </c>
+      <c r="B49" s="0">
+        <v>2863.0859999999971</v>
+      </c>
+      <c r="C49" s="0">
+        <v>3005.5939999999991</v>
       </c>
     </row>
     <row r="50">
+      <c r="A50" s="0">
+        <v>2235.9100000000017</v>
+      </c>
       <c r="B50" s="0">
-        <v>5063.6164999999946</v>
+        <v>1762.1320000000005</v>
       </c>
       <c r="C50" s="0">
-        <v>3905.7699999999977</v>
-      </c>
-      <c r="D50" s="0">
-        <v>3782.1229999999991</v>
+        <v>1902.9730000000004</v>
       </c>
     </row>
     <row r="51">
+      <c r="A51" s="0">
+        <v>16759.309999999994</v>
+      </c>
       <c r="B51" s="0">
-        <v>2051.244999999999</v>
+        <v>9248.1730000000025</v>
       </c>
       <c r="C51" s="0">
-        <v>880.86200000000019</v>
-      </c>
-      <c r="D51" s="0">
-        <v>877.02800000000002</v>
+        <v>9299.146999999999</v>
       </c>
     </row>
     <row r="52">
+      <c r="A52" s="0">
+        <v>4869.9800000000023</v>
+      </c>
       <c r="B52" s="0">
-        <v>28435.779000000002</v>
+        <v>2704.0450000000005</v>
       </c>
       <c r="C52" s="0">
-        <v>13879.268000000005</v>
-      </c>
-      <c r="D52" s="0">
-        <v>13303.316999999986</v>
+        <v>2941.7550000000001</v>
       </c>
     </row>
     <row r="53">
+      <c r="A53" s="0">
+        <v>5089.1450000000059</v>
+      </c>
       <c r="B53" s="0">
-        <v>6419.529999999997</v>
+        <v>2495.0159999999996</v>
       </c>
       <c r="C53" s="0">
-        <v>3213.4410000000021</v>
-      </c>
-      <c r="D53" s="0">
-        <v>2876.0500000000006</v>
+        <v>2607.3530000000005</v>
       </c>
     </row>
     <row r="54">
+      <c r="A54" s="0">
+        <v>0</v>
+      </c>
       <c r="B54" s="0">
-        <v>9685.487000000001</v>
+        <v>0</v>
       </c>
       <c r="C54" s="0">
-        <v>3489.5490000000009</v>
-      </c>
-      <c r="D54" s="0">
-        <v>3887.7800000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
+      <c r="A55" s="0">
+        <v>3381.9580000000005</v>
+      </c>
       <c r="B55" s="0">
-        <v>0</v>
+        <v>2380.5339999999983</v>
       </c>
       <c r="C55" s="0">
-        <v>0</v>
-      </c>
-      <c r="D55" s="0">
-        <v>0</v>
+        <v>2428.5495000000019</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>2284.5360000000001</v>
+      </c>
+      <c r="B56" s="0">
+        <v>1891.0830000000001</v>
+      </c>
+      <c r="C56" s="0">
+        <v>2068.4569999999999</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>12252.739999999998</v>
+      </c>
+      <c r="B57" s="0">
+        <v>6782.1049999999932</v>
+      </c>
+      <c r="C57" s="0">
+        <v>6758.3839999999964</v>
       </c>
     </row>
     <row r="58">
+      <c r="A58" s="0">
+        <v>4328.6750000000002</v>
+      </c>
       <c r="B58" s="0">
-        <v>5352.5099999999984</v>
+        <v>2233.5149999999994</v>
       </c>
       <c r="C58" s="0">
-        <v>4057.3584999999989</v>
-      </c>
-      <c r="D58" s="0">
-        <v>4199.5489999999991</v>
+        <v>2605.3999999999987</v>
       </c>
     </row>
     <row r="59">
+      <c r="A59" s="0">
+        <v>3628.4829999999993</v>
+      </c>
       <c r="B59" s="0">
-        <v>1549.5760000000005</v>
+        <v>1841.2869999999996</v>
       </c>
       <c r="C59" s="0">
-        <v>774.76000000000056</v>
-      </c>
-      <c r="D59" s="0">
-        <v>775.00999999999988</v>
+        <v>1956.3139999999999</v>
       </c>
     </row>
     <row r="60">
+      <c r="A60" s="0">
+        <v>0</v>
+      </c>
       <c r="B60" s="0">
-        <v>24626.871000000021</v>
+        <v>0</v>
       </c>
       <c r="C60" s="0">
-        <v>14362.421999999991</v>
-      </c>
-      <c r="D60" s="0">
-        <v>14199.889000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
+      <c r="A61" s="0">
+        <v>0</v>
+      </c>
       <c r="B61" s="0">
-        <v>6031.7150000000001</v>
+        <v>0</v>
       </c>
       <c r="C61" s="0">
-        <v>3472.3050000000017</v>
-      </c>
-      <c r="D61" s="0">
-        <v>3120.5699999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
+      <c r="A62" s="0">
+        <v>0</v>
+      </c>
       <c r="B62" s="0">
-        <v>8811.9969999999921</v>
+        <v>0</v>
       </c>
       <c r="C62" s="0">
-        <v>3972.7949999999996</v>
-      </c>
-      <c r="D62" s="0">
-        <v>4300.2640000000019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
+      <c r="A63" s="0">
+        <v>0</v>
+      </c>
       <c r="B63" s="0">
         <v>0</v>
       </c>
       <c r="C63" s="0">
         <v>0</v>
       </c>
-      <c r="D63" s="0">
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>0</v>
+      </c>
+      <c r="B64" s="0">
+        <v>0</v>
+      </c>
+      <c r="C64" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>0</v>
+      </c>
+      <c r="B65" s="0">
+        <v>0</v>
+      </c>
+      <c r="C65" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="66">
+      <c r="A66" s="0">
+        <v>0</v>
+      </c>
       <c r="B66" s="0">
-        <v>3892.4975000000031</v>
+        <v>0</v>
       </c>
       <c r="C66" s="0">
-        <v>2863.0859999999971</v>
-      </c>
-      <c r="D66" s="0">
-        <v>3005.5939999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
+      <c r="A67" s="0">
+        <v>0</v>
+      </c>
       <c r="B67" s="0">
-        <v>2703.3680000000018</v>
+        <v>0</v>
       </c>
       <c r="C67" s="0">
-        <v>1506.2320000000002</v>
-      </c>
-      <c r="D67" s="0">
-        <v>1693.3080000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
+      <c r="A68" s="0">
+        <v>0</v>
+      </c>
       <c r="B68" s="0">
-        <v>17505.994999999995</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0">
-        <v>8962.4610000000048</v>
-      </c>
-      <c r="D68" s="0">
-        <v>8863.7390000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
+      <c r="A69" s="0">
+        <v>0</v>
+      </c>
       <c r="B69" s="0">
-        <v>5193.0250000000024</v>
+        <v>0</v>
       </c>
       <c r="C69" s="0">
-        <v>2834.9399999999996</v>
-      </c>
-      <c r="D69" s="0">
-        <v>2502.3150000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
+      <c r="A70" s="0">
+        <v>0</v>
+      </c>
       <c r="B70" s="0">
-        <v>5630.9060000000045</v>
+        <v>0</v>
       </c>
       <c r="C70" s="0">
-        <v>2248.7659999999992</v>
-      </c>
-      <c r="D70" s="0">
-        <v>2321.4749999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
+      <c r="A71" s="0">
+        <v>0</v>
+      </c>
       <c r="B71" s="0">
         <v>0</v>
       </c>
       <c r="C71" s="0">
         <v>0</v>
       </c>
-      <c r="D71" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" s="0">
-        <v>5</v>
-      </c>
-      <c r="C74" s="0">
-        <v>0</v>
-      </c>
-      <c r="D74" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" s="0">
-        <v>1.7069999999999999</v>
-      </c>
-      <c r="C75" s="0">
-        <v>0</v>
-      </c>
-      <c r="D75" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" s="0">
-        <v>29.384</v>
-      </c>
-      <c r="C76" s="0">
-        <v>0</v>
-      </c>
-      <c r="D76" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="B77" s="0">
-        <v>16.210000000000001</v>
-      </c>
-      <c r="C77" s="0">
-        <v>0</v>
-      </c>
-      <c r="D77" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="B78" s="0">
-        <v>12.254000000000001</v>
-      </c>
-      <c r="C78" s="0">
-        <v>0</v>
-      </c>
-      <c r="D78" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="B79" s="0">
-        <v>0</v>
-      </c>
-      <c r="C79" s="0">
-        <v>0</v>
-      </c>
-      <c r="D79" s="0">
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>0</v>
+      </c>
+      <c r="B72" s="0">
+        <v>0</v>
+      </c>
+      <c r="C72" s="0">
         <v>0</v>
       </c>
     </row>
